--- a/Modules/@WirelessPower_LinkCharge_Transmitter(TS61002+TS80003)_(20V 4A)/bom.xlsx
+++ b/Modules/@WirelessPower_LinkCharge_Transmitter(TS61002+TS80003)_(20V 4A)/bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\#WirelessPowerP40_Transmitter(TS61002+TS80003)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files_of_zhangyu\Project\KICAD\Modules\@WirelessPower_LinkCharge_Transmitter(TS61002+TS80003)_(20V 4A)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52177BB8-B889-40B3-821E-5503DBD7225D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F899906B-BF28-427B-A346-1D69C52BF7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1215" windowWidth="15495" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WirelessPowerTransmitter P40" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="146">
   <si>
     <t>标号</t>
   </si>
   <si>
-    <t>数/板</t>
-  </si>
-  <si>
     <t>值</t>
   </si>
   <si>
@@ -485,6 +482,26 @@
   </si>
   <si>
     <t>U10</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/板</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-523</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB521S-30</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TR1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,8 +680,25 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1096,23 +1130,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1470,1577 +1510,1605 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4"/>
+    <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
+    <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
         <f>F2*G2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H59" si="0">F3*G3</f>
+        <v>111</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H60" si="0">F3*G3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+        <v>110</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+        <v>112</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+        <v>112</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+        <v>110</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+        <v>110</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F11">
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+        <v>110</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+        <v>111</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="4">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+        <v>110</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+        <v>111</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="4">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="4">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
+        <v>112</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <v>1210</v>
       </c>
-      <c r="F19">
-        <v>50</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="F19" s="2">
+        <v>100</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
         <v>1210</v>
       </c>
-      <c r="F20">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="F20" s="2">
+        <v>100</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="4">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21">
-        <v>50</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+        <v>110</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+        <v>110</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23">
-        <v>50</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+        <v>110</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+        <v>110</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2">
+        <v>100</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="4">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27">
-        <v>50</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
+        <v>111</v>
+      </c>
+      <c r="F27" s="2">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
+        <v>110</v>
+      </c>
+      <c r="F28" s="2">
+        <v>100</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29">
-        <v>50</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+        <v>110</v>
+      </c>
+      <c r="F29" s="2">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="4">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30">
-        <v>50</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+        <v>110</v>
+      </c>
+      <c r="F30" s="2">
+        <v>100</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
-      </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
+        <v>110</v>
+      </c>
+      <c r="F31" s="2">
+        <v>100</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
-      </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1">
         <v>2512</v>
       </c>
-      <c r="F32">
-        <v>50</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="F32" s="2">
+        <v>100</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="4">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F33">
-        <v>50</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
+        <v>110</v>
+      </c>
+      <c r="F33" s="2">
+        <v>100</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="2">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="4">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
-      </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2">
+        <v>100</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="4">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
+        <v>110</v>
+      </c>
+      <c r="F35" s="2">
+        <v>100</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="4">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36">
-        <v>50</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
+        <v>110</v>
+      </c>
+      <c r="F36" s="2">
+        <v>100</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="4">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>78</v>
-      </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37">
-        <v>50</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
+        <v>110</v>
+      </c>
+      <c r="F37" s="2">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="4">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>80</v>
-      </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F38">
-        <v>50</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
+        <v>112</v>
+      </c>
+      <c r="F38" s="2">
+        <v>100</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="4">
+        <v>80</v>
+      </c>
+      <c r="B39" s="2">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F39">
-        <v>50</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+        <v>110</v>
+      </c>
+      <c r="F39" s="2">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="4">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F40">
-        <v>50</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+        <v>110</v>
+      </c>
+      <c r="F40" s="2">
+        <v>100</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="4">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41">
-        <v>50</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
+        <v>110</v>
+      </c>
+      <c r="F41" s="2">
+        <v>100</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>137</v>
       </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D42" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="F42" s="2">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
         <f t="shared" ref="H42" si="1">F42*G42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
         <v>88</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>89</v>
       </c>
       <c r="E43" s="1">
         <v>3015</v>
       </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="F43" s="2">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B44" s="4">
+        <v>117</v>
+      </c>
+      <c r="B44" s="2">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44">
-        <v>50</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
+        <v>110</v>
+      </c>
+      <c r="F44" s="2">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="4">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2">
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
+        <v>110</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="4">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F46">
-        <v>50</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
+        <v>110</v>
+      </c>
+      <c r="F46" s="2">
+        <v>100</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="4">
+        <v>145</v>
+      </c>
+      <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47">
+        <v>110</v>
+      </c>
+      <c r="F47" s="2">
         <v>10</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>130</v>
       </c>
-      <c r="D48" t="s">
-        <v>131</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F48">
+        <v>132</v>
+      </c>
+      <c r="F48" s="2">
         <v>10</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="4">
+        <v>86</v>
+      </c>
+      <c r="B49" s="2">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F49">
-        <v>50</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
+        <v>112</v>
+      </c>
+      <c r="F49" s="2">
+        <v>100</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
         <f>F49*G49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B50" s="4">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
+        <v>142</v>
+      </c>
+      <c r="F50" s="2">
+        <v>100</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
         <f>F50*G50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
+        <v>84</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="F51" s="2">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <f>F51*G51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="4">
+        <v>90</v>
+      </c>
+      <c r="B52" s="2">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
+        <v>92</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B53" s="4">
+        <v>93</v>
+      </c>
+      <c r="B53" s="2">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
+        <v>95</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="4">
+        <v>96</v>
+      </c>
+      <c r="B54" s="2">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
+        <v>123</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="4">
+        <v>98</v>
+      </c>
+      <c r="B55" s="2">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="4">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
+        <v>103</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="4">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
+        <v>106</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="4">
+        <v>107</v>
+      </c>
+      <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
+        <v>108</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="4">
+        <v>133</v>
+      </c>
+      <c r="B59" s="2">
         <v>1</v>
       </c>
       <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>140</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
